--- a/Onto_Avac/Ontologia_V1_Projeto_Avac.xlsx
+++ b/Onto_Avac/Ontologia_V1_Projeto_Avac.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\Onto_Projeto_Avac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACB1701-0A5D-44A1-90DF-D0A7648C383C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D74AFD-5009-40AC-B68C-70810EBEACD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="83">
   <si>
     <t>Escopo</t>
   </si>
@@ -207,9 +207,6 @@
     <t>descrição</t>
   </si>
   <si>
-    <t>ifc.Acessório</t>
-  </si>
-  <si>
     <t>ifc.DutoConexão</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>ifc.Damper</t>
   </si>
   <si>
-    <t>Revit.Acessório</t>
-  </si>
-  <si>
     <t>Revit.DutoCurva</t>
   </si>
   <si>
@@ -246,9 +240,6 @@
     <t>Revit.DutoIsolador</t>
   </si>
   <si>
-    <t>Revit.DutoLinha</t>
-  </si>
-  <si>
     <t>Revit.DutoTerminal</t>
   </si>
   <si>
@@ -283,6 +274,21 @@
   </si>
   <si>
     <t>Dutos.Avac</t>
+  </si>
+  <si>
+    <t>IfcCovering</t>
+  </si>
+  <si>
+    <t>ifc.DutoForro</t>
+  </si>
+  <si>
+    <t>Revit.DutoForro</t>
+  </si>
+  <si>
+    <t>ifc.DutoAcessório</t>
+  </si>
+  <si>
+    <t>Revit.DutoAcessório</t>
   </si>
 </sst>
 </file>
@@ -622,6 +628,14 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -729,14 +743,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1056,7 +1062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E70C5E-084A-4E8A-943C-C001891657D7}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1080,7 +1086,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1088,7 +1094,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1203,7 +1209,7 @@
       </c>
       <c r="B17" s="13">
         <f ca="1">NOW()</f>
-        <v>45383.447718634263</v>
+        <v>45383.51336597222</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1230,11 +1236,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB562E2-4AE2-4803-9404-94F78FD89919}">
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1337,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>20</v>
@@ -1401,7 +1407,7 @@
       </c>
       <c r="W2" s="26" t="str">
         <f>_xlfn.CONCAT("""","Objeto BIM dutos AVAC ",C2,":   ",B2,"""")</f>
-        <v>"Objeto BIM dutos AVAC ifcDiscreteAccessory:   ifc.Acessório"</v>
+        <v>"Objeto BIM dutos AVAC ifcDiscreteAccessory:   ifc.DutoAcessório"</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1409,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>21</v>
@@ -1472,7 +1478,7 @@
         <v>54</v>
       </c>
       <c r="W3" s="26" t="str">
-        <f t="shared" ref="W3:W25" si="0">_xlfn.CONCAT("""","Objeto BIM dutos AVAC ",C3,":   ",B3,"""")</f>
+        <f t="shared" ref="W3:W26" si="0">_xlfn.CONCAT("""","Objeto BIM dutos AVAC ",C3,":   ",B3,"""")</f>
         <v>"Objeto BIM dutos AVAC ifcDuctFitting:   ifc.DutoConexão"</v>
       </c>
     </row>
@@ -1481,7 +1487,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>23</v>
@@ -1553,7 +1559,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>22</v>
@@ -1625,10 +1631,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>13</v>
@@ -1688,19 +1694,19 @@
         <v>54</v>
       </c>
       <c r="W6" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC ifcAirTerminaI:   ifc.DutoTerminaI"</v>
+        <f t="shared" ref="W6" si="1">_xlfn.CONCAT("""","Objeto BIM dutos AVAC ",C6,":   ",B6,"""")</f>
+        <v>"Objeto BIM dutos AVAC IfcCovering:   ifc.DutoForro"</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>7</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>53</v>
+      <c r="B7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>13</v>
@@ -1761,18 +1767,18 @@
       </c>
       <c r="W7" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC IfcUnitaryControlElement:   Ifc.ControlElement"</v>
+        <v>"Objeto BIM dutos AVAC ifcAirTerminaI:   ifc.DutoTerminaI"</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>8</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>26</v>
+      <c r="B8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>13</v>
@@ -1833,18 +1839,18 @@
       </c>
       <c r="W8" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC ifcUnitaryEquipment:   ifc.DutoEquipamento"</v>
+        <v>"Objeto BIM dutos AVAC IfcUnitaryControlElement:   Ifc.ControlElement"</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>9</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>24</v>
+      <c r="B9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>13</v>
@@ -1905,18 +1911,18 @@
       </c>
       <c r="W9" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC ifcFan:   ifc.DutoVentilador"</v>
+        <v>"Objeto BIM dutos AVAC ifcUnitaryEquipment:   ifc.DutoEquipamento"</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>10</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>19</v>
+      <c r="B10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>13</v>
@@ -1977,7 +1983,7 @@
       </c>
       <c r="W10" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC ifcDamper:   ifc.Damper"</v>
+        <v>"Objeto BIM dutos AVAC ifcFan:   ifc.DutoVentilador"</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1985,10 +1991,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>13</v>
@@ -2049,18 +2055,18 @@
       </c>
       <c r="W11" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC ifcVibrationIsoIator:   ifc.VibraçãoIsolador"</v>
+        <v>"Objeto BIM dutos AVAC ifcDamper:   ifc.Damper"</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>12</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>64</v>
+      <c r="B12" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>13</v>
@@ -2121,18 +2127,18 @@
       </c>
       <c r="W12" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC OST_DuctAccessory:   Revit.Acessório"</v>
+        <v>"Objeto BIM dutos AVAC ifcVibrationIsoIator:   ifc.VibraçãoIsolador"</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>13</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>65</v>
+      <c r="B13" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>13</v>
@@ -2193,7 +2199,7 @@
       </c>
       <c r="W13" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC OST_DuctCurves:   Revit.DutoCurva"</v>
+        <v>"Objeto BIM dutos AVAC OST_DuctAccessory:   Revit.DutoAcessório"</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2201,10 +2207,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>13</v>
@@ -2264,8 +2270,8 @@
         <v>54</v>
       </c>
       <c r="W14" s="26" t="str">
-        <f t="shared" ref="W14" si="1">_xlfn.CONCAT("""","Objeto BIM dutos AVAC ",C14,":   ",B14,"""")</f>
-        <v>"Objeto BIM dutos AVAC OST_FlexDuctCurves:   Revit.DutoCurvaFlexivel"</v>
+        <f t="shared" si="0"/>
+        <v>"Objeto BIM dutos AVAC OST_DuctCurves:   Revit.DutoCurva"</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2273,10 +2279,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>13</v>
@@ -2336,8 +2342,8 @@
         <v>54</v>
       </c>
       <c r="W15" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC OST_DuctFitting:   Revit.DutoConexão"</v>
+        <f t="shared" ref="W15" si="2">_xlfn.CONCAT("""","Objeto BIM dutos AVAC ",C15,":   ",B15,"""")</f>
+        <v>"Objeto BIM dutos AVAC OST_FlexDuctCurves:   Revit.DutoCurvaFlexivel"</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2345,10 +2351,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>13</v>
@@ -2409,7 +2415,7 @@
       </c>
       <c r="W16" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC OST_DuctInsulations:   Revit.DutoIsolador"</v>
+        <v>"Objeto BIM dutos AVAC OST_DuctFitting:   Revit.DutoConexão"</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2417,10 +2423,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>13</v>
@@ -2481,7 +2487,7 @@
       </c>
       <c r="W17" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC OST_DuctLinings:   Revit.DutoLinha"</v>
+        <v>"Objeto BIM dutos AVAC OST_DuctInsulations:   Revit.DutoIsolador"</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2489,10 +2495,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>13</v>
@@ -2553,7 +2559,7 @@
       </c>
       <c r="W18" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC OST_DuctTerminal:   Revit.DutoTerminal"</v>
+        <v>"Objeto BIM dutos AVAC OST_DuctLinings:   Revit.DutoForro"</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2561,10 +2567,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>13</v>
@@ -2625,7 +2631,7 @@
       </c>
       <c r="W19" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC OST_ExpansionJoints:   Revit.JuntaExpansão"</v>
+        <v>"Objeto BIM dutos AVAC OST_DuctTerminal:   Revit.DutoTerminal"</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2633,10 +2639,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>13</v>
@@ -2697,7 +2703,7 @@
       </c>
       <c r="W20" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC OST_MechanicalControlDevices:   Revit.DispositivoMecanico"</v>
+        <v>"Objeto BIM dutos AVAC OST_ExpansionJoints:   Revit.JuntaExpansão"</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2705,10 +2711,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>13</v>
@@ -2769,7 +2775,7 @@
       </c>
       <c r="W21" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC OST_MechanicalEquipment:   Revit.EquipamentoMecanico"</v>
+        <v>"Objeto BIM dutos AVAC OST_MechanicalControlDevices:   Revit.DispositivoMecanico"</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2777,10 +2783,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>13</v>
@@ -2841,7 +2847,7 @@
       </c>
       <c r="W22" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC OST_MechanicalEquipmentSet:   Revit.ConjuntoMecanico"</v>
+        <v>"Objeto BIM dutos AVAC OST_MechanicalEquipment:   Revit.EquipamentoMecanico"</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2849,10 +2855,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>13</v>
@@ -2913,7 +2919,7 @@
       </c>
       <c r="W23" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC OST_MEPAncillaryFraming:   Revit.SuporteDutos"</v>
+        <v>"Objeto BIM dutos AVAC OST_MechanicalEquipmentSet:   Revit.ConjuntoMecanico"</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2921,10 +2927,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>13</v>
@@ -2985,7 +2991,7 @@
       </c>
       <c r="W24" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC OST_VibrationDampers:   Revit.Damper"</v>
+        <v>"Objeto BIM dutos AVAC OST_MEPAncillaryFraming:   Revit.SuporteDutos"</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2993,10 +2999,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>13</v>
@@ -3057,75 +3063,147 @@
       </c>
       <c r="W25" s="26" t="str">
         <f t="shared" si="0"/>
+        <v>"Objeto BIM dutos AVAC OST_VibrationDampers:   Revit.Damper"</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17">
+        <v>26</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O26" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q26" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R26" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="S26" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T26" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="U26" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V26" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="W26" s="26" t="str">
+        <f t="shared" si="0"/>
         <v>"Objeto BIM dutos AVAC OST_VibrationIsolators:   Revit.VibraçãoIsolador"</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:B1 A26:B1048576 X1:XFD13 D2:W13 A2:A25 D14:XFD25 F26:XFD433 D26:D1048576 F26:F1048576 H26:J1048576 L434:XFD1048576">
-    <cfRule type="cellIs" dxfId="20" priority="1277" operator="equal">
+  <conditionalFormatting sqref="A1:B1 A27:B1048576 X1:XFD5 D2:W5 F27:XFD434 D27:D1048576 F27:F1048576 H27:J1048576 L435:XFD1048576 D6:XFD26 A2:A26">
+    <cfRule type="cellIs" dxfId="0" priority="1277" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B25">
-    <cfRule type="duplicateValues" dxfId="19" priority="1283"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="1285"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="1286"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="1287"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="1288"/>
+  <conditionalFormatting sqref="B14:B26">
+    <cfRule type="duplicateValues" dxfId="20" priority="1283"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1285"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1286"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1287"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1288"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="14" priority="1276"/>
+  <conditionalFormatting sqref="B27:B1048576 B1">
+    <cfRule type="duplicateValues" dxfId="15" priority="1276"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C25">
-    <cfRule type="duplicateValues" dxfId="13" priority="1293"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="1295"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="1296"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="1297"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="1298"/>
+  <conditionalFormatting sqref="C13:C26">
+    <cfRule type="duplicateValues" dxfId="14" priority="1293"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1295"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1296"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1297"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1298"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Onto_Avac/Ontologia_V1_Projeto_Avac.xlsx
+++ b/Onto_Avac/Ontologia_V1_Projeto_Avac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\Onto_Projeto_Avac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D74AFD-5009-40AC-B68C-70810EBEACD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E168BAF8-4654-445A-8982-C36225CAE6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="FatosIn" sheetId="28" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FatosIn!$E$1:$E$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FatosIn!$E$1:$E$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="104">
   <si>
     <t>Escopo</t>
   </si>
@@ -117,9 +117,6 @@
     <t>ifcFan</t>
   </si>
   <si>
-    <t>ifcVibrationIsoIator</t>
-  </si>
-  <si>
     <t>ifcUnitaryEquipment</t>
   </si>
   <si>
@@ -213,27 +210,15 @@
     <t>ifc.DutoSilenciador</t>
   </si>
   <si>
-    <t>ifc.DutoSegmento</t>
-  </si>
-  <si>
     <t>ifc.DutoTerminaI</t>
   </si>
   <si>
-    <t>Ifc.ControlElement</t>
-  </si>
-  <si>
     <t>ifc.DutoEquipamento</t>
   </si>
   <si>
     <t>ifc.DutoVentilador</t>
   </si>
   <si>
-    <t>ifc.Damper</t>
-  </si>
-  <si>
-    <t>Revit.DutoCurva</t>
-  </si>
-  <si>
     <t>Revit.DutoConexão</t>
   </si>
   <si>
@@ -258,18 +243,6 @@
     <t>Revit.ConjuntoMecanico</t>
   </si>
   <si>
-    <t>Revit.SuporteDutos</t>
-  </si>
-  <si>
-    <t>Revit.Damper</t>
-  </si>
-  <si>
-    <t>ifc.VibraçãoIsolador</t>
-  </si>
-  <si>
-    <t>Revit.VibraçãoIsolador</t>
-  </si>
-  <si>
     <t>avac:</t>
   </si>
   <si>
@@ -289,6 +262,96 @@
   </si>
   <si>
     <t>Revit.DutoAcessório</t>
+  </si>
+  <si>
+    <t>é.categoria</t>
+  </si>
+  <si>
+    <t>tema</t>
+  </si>
+  <si>
+    <t>tem.sistema</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>SIS.Avac.ID.100000</t>
+  </si>
+  <si>
+    <t>Sistema.Avac</t>
+  </si>
+  <si>
+    <t>IfcDistributionSystem</t>
+  </si>
+  <si>
+    <t>OST_DuctSystem</t>
+  </si>
+  <si>
+    <t>DutoArC.ID.100108</t>
+  </si>
+  <si>
+    <t>Revit.Duto</t>
+  </si>
+  <si>
+    <t>ifc.Duto</t>
+  </si>
+  <si>
+    <t>DutoArC.ID.100109</t>
+  </si>
+  <si>
+    <t>SIS.ArC.ID.200000</t>
+  </si>
+  <si>
+    <t>"Duto_arcond"</t>
+  </si>
+  <si>
+    <t>"Curv_arcond"</t>
+  </si>
+  <si>
+    <t>P_InsuflaDuto</t>
+  </si>
+  <si>
+    <t>P_InsuflaDutoConexão</t>
+  </si>
+  <si>
+    <t>DutoRet.ID.100108</t>
+  </si>
+  <si>
+    <t>DutoRet.ID.100109</t>
+  </si>
+  <si>
+    <t>SIS.Ret.ID.200100</t>
+  </si>
+  <si>
+    <t>SIS.Exa.ID.300100</t>
+  </si>
+  <si>
+    <t>P_RetornoDuto</t>
+  </si>
+  <si>
+    <t>P_RetornoDutoConexão</t>
+  </si>
+  <si>
+    <t>Ifc.DutoControle</t>
+  </si>
+  <si>
+    <t>ifc.DutoDamper</t>
+  </si>
+  <si>
+    <t>Revit.DutoVibraçãoIsolador</t>
+  </si>
+  <si>
+    <t>Revit.DutoDamper</t>
+  </si>
+  <si>
+    <t>Revit.DutoSuporte</t>
+  </si>
+  <si>
+    <t>ifc.SistemaAvac</t>
+  </si>
+  <si>
+    <t>Revit.SistemaAvac</t>
   </si>
 </sst>
 </file>
@@ -469,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -549,11 +612,249 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="547">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -628,6 +929,206 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i/>
         <strike val="0"/>
@@ -636,120 +1137,4860 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFFF99FF"/>
-      <color rgb="FFFFCCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1086,7 +6327,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1094,7 +6335,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1102,7 +6343,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1136,15 +6377,15 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1152,7 +6393,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1160,7 +6401,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1168,64 +6409,64 @@
         <v>0</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="13">
         <f ca="1">NOW()</f>
-        <v>45383.51336597222</v>
+        <v>45383.69020798611</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1236,11 +6477,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB562E2-4AE2-4803-9404-94F78FD89919}">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1248,20 +6489,20 @@
     <col min="1" max="1" width="2.5546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.77734375" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="14" customWidth="1"/>
     <col min="10" max="10" width="3.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" style="2" customWidth="1"/>
     <col min="16" max="16" width="3.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="3.77734375" style="2" bestFit="1" customWidth="1"/>
@@ -1276,25 +6517,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>46</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>3</v>
@@ -1302,124 +6543,124 @@
       <c r="J1" s="7"/>
       <c r="K1" s="20"/>
       <c r="L1" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="R1" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="T1" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="V1" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W1" s="20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+    <row r="2" spans="1:23" s="30" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27">
         <v>2</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" s="26" t="str">
+        <f>_xlfn.CONCAT("""","Objeto BIM de instalação  ",C2,":   ",B2,"""")</f>
+        <v>"Objeto BIM de instalação  IfcDistributionSystem:   ifc.SistemaAvac"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="30" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="W2" s="26" t="str">
-        <f>_xlfn.CONCAT("""","Objeto BIM dutos AVAC ",C2,":   ",B2,"""")</f>
-        <v>"Objeto BIM dutos AVAC ifcDiscreteAccessory:   ifc.DutoAcessório"</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
-        <v>3</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>21</v>
-      </c>
       <c r="D3" s="21" t="s">
         <v>13</v>
       </c>
@@ -1475,22 +6716,22 @@
         <v>13</v>
       </c>
       <c r="V3" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W3" s="26" t="str">
-        <f t="shared" ref="W3:W26" si="0">_xlfn.CONCAT("""","Objeto BIM dutos AVAC ",C3,":   ",B3,"""")</f>
-        <v>"Objeto BIM dutos AVAC ifcDuctFitting:   ifc.DutoConexão"</v>
+        <f t="shared" ref="W3" si="0">_xlfn.CONCAT("""","Objeto BIM de instalação  ",C3,":   ",B3,"""")</f>
+        <v>"Objeto BIM de instalação  OST_DuctSystem:   Revit.SistemaAvac"</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+      <c r="A4" s="27">
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>13</v>
@@ -1547,22 +6788,22 @@
         <v>13</v>
       </c>
       <c r="V4" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W4" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC ifcDuctSiIencer:   ifc.DutoSilenciador"</v>
+        <f t="shared" ref="W4" si="1">_xlfn.CONCAT("""","Objeto BIM dutos AVAC ",C4,":   ",B4,"""")</f>
+        <v>"Objeto BIM dutos AVAC ifcDuctSegment:   ifc.Duto"</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+      <c r="A5" s="27">
         <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>13</v>
@@ -1619,22 +6860,22 @@
         <v>13</v>
       </c>
       <c r="V5" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W5" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC ifcDuctSegment:   ifc.DutoSegmento"</v>
+        <f t="shared" ref="W5:W27" si="2">_xlfn.CONCAT("""","Objeto BIM dutos AVAC ",C5,":   ",B5,"""")</f>
+        <v>"Objeto BIM dutos AVAC ifcDuctFitting:   ifc.DutoConexão"</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6" s="27">
         <v>6</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>78</v>
+      <c r="B6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>13</v>
@@ -1691,22 +6932,22 @@
         <v>13</v>
       </c>
       <c r="V6" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W6" s="26" t="str">
-        <f t="shared" ref="W6" si="1">_xlfn.CONCAT("""","Objeto BIM dutos AVAC ",C6,":   ",B6,"""")</f>
-        <v>"Objeto BIM dutos AVAC IfcCovering:   ifc.DutoForro"</v>
+        <f>_xlfn.CONCAT("""","Objeto BIM dutos AVAC ",C6,":   ",B6,"""")</f>
+        <v>"Objeto BIM dutos AVAC ifcDiscreteAccessory:   ifc.DutoAcessório"</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+      <c r="A7" s="27">
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>13</v>
@@ -1763,94 +7004,94 @@
         <v>13</v>
       </c>
       <c r="V7" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W7" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC ifcAirTerminaI:   ifc.DutoTerminaI"</v>
+        <f t="shared" si="2"/>
+        <v>"Objeto BIM dutos AVAC ifcDuctSiIencer:   ifc.DutoSilenciador"</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+      <c r="A8" s="27">
         <v>8</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="U8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V8" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="R8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="S8" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="T8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="U8" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="V8" s="25" t="s">
-        <v>54</v>
-      </c>
       <c r="W8" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC IfcUnitaryControlElement:   Ifc.ControlElement"</v>
+        <f t="shared" ref="W8" si="3">_xlfn.CONCAT("""","Objeto BIM dutos AVAC ",C8,":   ",B8,"""")</f>
+        <v>"Objeto BIM dutos AVAC IfcCovering:   ifc.DutoForro"</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+      <c r="A9" s="27">
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>13</v>
@@ -1907,22 +7148,22 @@
         <v>13</v>
       </c>
       <c r="V9" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W9" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC ifcUnitaryEquipment:   ifc.DutoEquipamento"</v>
+        <f t="shared" si="2"/>
+        <v>"Objeto BIM dutos AVAC ifcAirTerminaI:   ifc.DutoTerminaI"</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+      <c r="A10" s="27">
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>13</v>
@@ -1979,22 +7220,22 @@
         <v>13</v>
       </c>
       <c r="V10" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W10" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC ifcFan:   ifc.DutoVentilador"</v>
+        <f t="shared" si="2"/>
+        <v>"Objeto BIM dutos AVAC IfcUnitaryControlElement:   Ifc.DutoControle"</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+      <c r="A11" s="27">
         <v>11</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>13</v>
@@ -2051,22 +7292,22 @@
         <v>13</v>
       </c>
       <c r="V11" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W11" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC ifcDamper:   ifc.Damper"</v>
+        <f t="shared" si="2"/>
+        <v>"Objeto BIM dutos AVAC ifcUnitaryEquipment:   ifc.DutoEquipamento"</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+      <c r="A12" s="27">
         <v>12</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>25</v>
+      <c r="B12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>13</v>
@@ -2123,22 +7364,22 @@
         <v>13</v>
       </c>
       <c r="V12" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W12" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC ifcVibrationIsoIator:   ifc.VibraçãoIsolador"</v>
+        <f t="shared" si="2"/>
+        <v>"Objeto BIM dutos AVAC ifcFan:   ifc.DutoVentilador"</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
-        <v>13</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>82</v>
+      <c r="A13" s="27">
+        <v>13</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>13</v>
@@ -2195,22 +7436,22 @@
         <v>13</v>
       </c>
       <c r="V13" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W13" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC OST_DuctAccessory:   Revit.DutoAcessório"</v>
+        <f t="shared" si="2"/>
+        <v>"Objeto BIM dutos AVAC ifcDamper:   ifc.DutoDamper"</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+      <c r="A14" s="27">
         <v>14</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>63</v>
+      <c r="B14" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>13</v>
@@ -2267,19 +7508,19 @@
         <v>13</v>
       </c>
       <c r="V14" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W14" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC OST_DuctCurves:   Revit.DutoCurva"</v>
+        <f t="shared" si="2"/>
+        <v>"Objeto BIM dutos AVAC OST_DuctAccessory:   Revit.DutoAcessório"</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
+      <c r="A15" s="27">
         <v>15</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>38</v>
@@ -2339,22 +7580,22 @@
         <v>13</v>
       </c>
       <c r="V15" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W15" s="26" t="str">
-        <f t="shared" ref="W15" si="2">_xlfn.CONCAT("""","Objeto BIM dutos AVAC ",C15,":   ",B15,"""")</f>
-        <v>"Objeto BIM dutos AVAC OST_FlexDuctCurves:   Revit.DutoCurvaFlexivel"</v>
+        <f t="shared" si="2"/>
+        <v>"Objeto BIM dutos AVAC OST_DuctCurves:   Revit.Duto"</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+      <c r="A16" s="27">
         <v>16</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>13</v>
@@ -2411,22 +7652,22 @@
         <v>13</v>
       </c>
       <c r="V16" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W16" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC OST_DuctFitting:   Revit.DutoConexão"</v>
+        <f t="shared" ref="W16" si="4">_xlfn.CONCAT("""","Objeto BIM dutos AVAC ",C16,":   ",B16,"""")</f>
+        <v>"Objeto BIM dutos AVAC OST_FlexDuctCurves:   Revit.DutoCurvaFlexivel"</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+      <c r="A17" s="27">
         <v>17</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>13</v>
@@ -2483,19 +7724,19 @@
         <v>13</v>
       </c>
       <c r="V17" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W17" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC OST_DuctInsulations:   Revit.DutoIsolador"</v>
+        <f t="shared" si="2"/>
+        <v>"Objeto BIM dutos AVAC OST_DuctFitting:   Revit.DutoConexão"</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+      <c r="A18" s="27">
         <v>18</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>28</v>
@@ -2555,22 +7796,22 @@
         <v>13</v>
       </c>
       <c r="V18" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W18" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC OST_DuctLinings:   Revit.DutoForro"</v>
+        <f t="shared" si="2"/>
+        <v>"Objeto BIM dutos AVAC OST_DuctInsulations:   Revit.DutoIsolador"</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+      <c r="A19" s="27">
         <v>19</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>13</v>
@@ -2627,22 +7868,22 @@
         <v>13</v>
       </c>
       <c r="V19" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W19" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC OST_DuctTerminal:   Revit.DutoTerminal"</v>
+        <f t="shared" si="2"/>
+        <v>"Objeto BIM dutos AVAC OST_DuctLinings:   Revit.DutoForro"</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
+      <c r="A20" s="27">
         <v>20</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>13</v>
@@ -2699,22 +7940,22 @@
         <v>13</v>
       </c>
       <c r="V20" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W20" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC OST_ExpansionJoints:   Revit.JuntaExpansão"</v>
+        <f t="shared" si="2"/>
+        <v>"Objeto BIM dutos AVAC OST_DuctTerminal:   Revit.DutoTerminal"</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
+      <c r="A21" s="27">
         <v>21</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>13</v>
@@ -2771,22 +8012,22 @@
         <v>13</v>
       </c>
       <c r="V21" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W21" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC OST_MechanicalControlDevices:   Revit.DispositivoMecanico"</v>
+        <f t="shared" si="2"/>
+        <v>"Objeto BIM dutos AVAC OST_ExpansionJoints:   Revit.JuntaExpansão"</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+      <c r="A22" s="27">
         <v>22</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>13</v>
@@ -2843,22 +8084,22 @@
         <v>13</v>
       </c>
       <c r="V22" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W22" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC OST_MechanicalEquipment:   Revit.EquipamentoMecanico"</v>
+        <f t="shared" si="2"/>
+        <v>"Objeto BIM dutos AVAC OST_MechanicalControlDevices:   Revit.DispositivoMecanico"</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
+      <c r="A23" s="27">
         <v>23</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>13</v>
@@ -2915,22 +8156,22 @@
         <v>13</v>
       </c>
       <c r="V23" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W23" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC OST_MechanicalEquipmentSet:   Revit.ConjuntoMecanico"</v>
+        <f t="shared" si="2"/>
+        <v>"Objeto BIM dutos AVAC OST_MechanicalEquipment:   Revit.EquipamentoMecanico"</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
+      <c r="A24" s="27">
         <v>24</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>13</v>
@@ -2987,22 +8228,22 @@
         <v>13</v>
       </c>
       <c r="V24" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W24" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC OST_MEPAncillaryFraming:   Revit.SuporteDutos"</v>
+        <f t="shared" si="2"/>
+        <v>"Objeto BIM dutos AVAC OST_MechanicalEquipmentSet:   Revit.ConjuntoMecanico"</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
+      <c r="A25" s="27">
         <v>25</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>13</v>
@@ -3059,19 +8300,19 @@
         <v>13</v>
       </c>
       <c r="V25" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W25" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC OST_VibrationDampers:   Revit.Damper"</v>
+        <f t="shared" si="2"/>
+        <v>"Objeto BIM dutos AVAC OST_MEPAncillaryFraming:   Revit.DutoSuporte"</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
+      <c r="A26" s="27">
         <v>26</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>41</v>
@@ -3131,81 +8372,807 @@
         <v>13</v>
       </c>
       <c r="V26" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W26" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>"Objeto BIM dutos AVAC OST_VibrationIsolators:   Revit.VibraçãoIsolador"</v>
+        <f t="shared" si="2"/>
+        <v>"Objeto BIM dutos AVAC OST_VibrationDampers:   Revit.DutoDamper"</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N27" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O27" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R27" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="S27" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T27" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="U27" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V27" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="W27" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>"Objeto BIM dutos AVAC OST_VibrationIsolators:   Revit.DutoVibraçãoIsolador"</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" s="30" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="27">
+        <v>28</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M28" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="P28" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q28" s="24" t="str">
+        <f>_xlfn.CONCAT("""",E28,"""")</f>
+        <v>"Revit.SistemaAvac"</v>
+      </c>
+      <c r="R28" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="S28" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T28" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="U28" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V28" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="W28" s="26" t="str">
+        <f>_xlfn.CONCAT("""","Sistema de Avac  ",C28,": Usa o ID do elemento  ",B28,"""")</f>
+        <v>"Sistema de Avac  Sistema.Avac: Usa o ID do elemento  SIS.Avac.ID.100000"</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" s="30" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="27">
+        <v>29</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N29" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O29" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="P29" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q29" s="24" t="str">
+        <f t="shared" ref="Q29:Q31" si="5">_xlfn.CONCAT("""",E29,"""")</f>
+        <v>"Revit.SistemaAvac"</v>
+      </c>
+      <c r="R29" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="S29" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T29" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="U29" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V29" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="W29" s="26" t="str">
+        <f t="shared" ref="W29:W31" si="6">_xlfn.CONCAT("""","Sistema de Avac  ",C29,": Usa o ID do elemento  ",B29,"""")</f>
+        <v>"Sistema de Avac  Sistema.Avac: Usa o ID do elemento  SIS.ArC.ID.200000"</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" s="30" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="27">
+        <v>30</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M30" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O30" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="P30" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q30" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>"Revit.SistemaAvac"</v>
+      </c>
+      <c r="R30" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="S30" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T30" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="U30" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V30" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="W30" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>"Sistema de Avac  Sistema.Avac: Usa o ID do elemento  SIS.Ret.ID.200100"</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" s="30" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="27">
+        <v>31</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O31" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q31" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>"Revit.SistemaAvac"</v>
+      </c>
+      <c r="R31" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="S31" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T31" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="U31" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V31" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="W31" s="26" t="str">
+        <f t="shared" si="6"/>
+        <v>"Sistema de Avac  Sistema.Avac: Usa o ID do elemento  SIS.Exa.ID.300100"</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" s="30" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="27">
+        <v>32</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I32" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N32" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="O32" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="P32" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q32" s="24" t="str">
+        <f>_xlfn.CONCAT("""",E32,"""")</f>
+        <v>"Revit.Duto"</v>
+      </c>
+      <c r="R32" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="S32" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T32" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="U32" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V32" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="W32" s="26" t="str">
+        <f>_xlfn.CONCAT("""","Traçado dos dutos  ",C32,": Usa o ID do elemento  ",B32,"""")</f>
+        <v>"Traçado dos dutos  P_InsuflaDuto: Usa o ID do elemento  DutoArC.ID.100108"</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" s="30" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="27">
+        <v>33</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M33" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N33" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="O33" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="P33" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q33" s="24" t="str">
+        <f t="shared" ref="Q33:Q34" si="7">_xlfn.CONCAT("""",E33,"""")</f>
+        <v>"Revit.DutoConexão"</v>
+      </c>
+      <c r="R33" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="S33" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T33" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="U33" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V33" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="W33" s="26" t="str">
+        <f>_xlfn.CONCAT("""","Traçado dos dutos  ",C33,": Usa o ID do elemento  ",B33,"""")</f>
+        <v>"Traçado dos dutos  P_InsuflaDutoConexão: Usa o ID do elemento  DutoArC.ID.100109"</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="30" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="27">
+        <v>34</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="O34" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="P34" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q34" s="24" t="str">
+        <f t="shared" si="7"/>
+        <v>"Revit.Duto"</v>
+      </c>
+      <c r="R34" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="S34" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T34" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="U34" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V34" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="W34" s="26" t="str">
+        <f>_xlfn.CONCAT("""","Traçado dos dutos  ",C34,": Usa o ID do elemento  ",B34,"""")</f>
+        <v>"Traçado dos dutos  P_RetornoDuto: Usa o ID do elemento  DutoRet.ID.100108"</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" s="30" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="27">
+        <v>35</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I35" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="O35" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="P35" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q35" s="24" t="str">
+        <f t="shared" ref="Q35" si="8">_xlfn.CONCAT("""",E35,"""")</f>
+        <v>"Revit.DutoConexão"</v>
+      </c>
+      <c r="R35" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="S35" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T35" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="U35" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V35" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="W35" s="26" t="str">
+        <f>_xlfn.CONCAT("""","Traçado dos dutos  ",C35,": Usa o ID do elemento  ",B35,"""")</f>
+        <v>"Traçado dos dutos  P_RetornoDutoConexão: Usa o ID do elemento  DutoRet.ID.100109"</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:B1 A27:B1048576 X1:XFD5 D2:W5 F27:XFD434 D27:D1048576 F27:F1048576 H27:J1048576 L435:XFD1048576 D6:XFD26 A2:A26">
-    <cfRule type="cellIs" dxfId="0" priority="1277" operator="equal">
+  <conditionalFormatting sqref="A1:B1 A36:B1048576 X1:XFD1 N28:XFD32 J29:M32 D29:D1048576 J33:XFD35 F36:XFD421 F36:F1048576 H36:J1048576 L422:XFD1048576 D2:XFD27 A2:A35">
+    <cfRule type="cellIs" dxfId="438" priority="1399" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:B26">
-    <cfRule type="duplicateValues" dxfId="20" priority="1283"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="1285"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="1286"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="1287"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="1288"/>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="437" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="436" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="435" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="434" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="433" priority="80"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="15" priority="1276"/>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="duplicateValues" dxfId="432" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="431" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="430" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="429" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="428" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="427" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C26">
-    <cfRule type="duplicateValues" dxfId="14" priority="1293"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="1295"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="1296"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="1297"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="1298"/>
+  <conditionalFormatting sqref="B15:B27">
+    <cfRule type="duplicateValues" dxfId="426" priority="1405"/>
+    <cfRule type="duplicateValues" dxfId="425" priority="1407"/>
+    <cfRule type="duplicateValues" dxfId="424" priority="1408"/>
+    <cfRule type="duplicateValues" dxfId="423" priority="1409"/>
+    <cfRule type="duplicateValues" dxfId="422" priority="1410"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="duplicateValues" dxfId="421" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="420" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="419" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="418" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="417" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="416" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="415" priority="122"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:B31">
+    <cfRule type="duplicateValues" dxfId="414" priority="1448"/>
+    <cfRule type="duplicateValues" dxfId="413" priority="1449"/>
+    <cfRule type="duplicateValues" dxfId="412" priority="1450"/>
+    <cfRule type="duplicateValues" dxfId="411" priority="1451"/>
+    <cfRule type="duplicateValues" dxfId="410" priority="1452"/>
+    <cfRule type="duplicateValues" dxfId="409" priority="1453"/>
+    <cfRule type="duplicateValues" dxfId="408" priority="1454"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:B35">
+    <cfRule type="duplicateValues" dxfId="407" priority="1459"/>
+    <cfRule type="duplicateValues" dxfId="406" priority="1460"/>
+    <cfRule type="duplicateValues" dxfId="405" priority="1461"/>
+    <cfRule type="duplicateValues" dxfId="404" priority="1462"/>
+    <cfRule type="duplicateValues" dxfId="403" priority="1463"/>
+    <cfRule type="duplicateValues" dxfId="402" priority="1464"/>
+    <cfRule type="duplicateValues" dxfId="401" priority="1465"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:B1048576 B1">
+    <cfRule type="duplicateValues" dxfId="400" priority="1398"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="399" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="398" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="132" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28 F28:M28">
+    <cfRule type="cellIs" dxfId="380" priority="115" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="131" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29:H35">
+    <cfRule type="cellIs" dxfId="358" priority="33" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="129" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="130" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="127" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="126" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="125" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="124" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="123" operator="equal">
       <formula>"null"</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="duplicateValues" dxfId="350" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="349" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="348" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="347" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="346" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="345" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="344" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="duplicateValues" dxfId="343" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="342" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="341" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="340" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="339" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="338" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="337" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="220" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
